--- a/Mifos Automation Excels/Client/4509-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-WAIVEINT-COLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Client/4509-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-WAIVEINT-COLLSHEETON09JAN.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="7"/>
   </bookViews>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>submittedon</t>
   </si>
@@ -308,12 +303,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -345,6 +340,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -424,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -488,6 +493,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,26 +592,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,23 +627,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2102,28 +2079,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2132,17 +2109,17 @@
         <v>10000</v>
       </c>
       <c r="B2" s="12">
-        <v>0</v>
+        <v>822.81</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="29">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="29">
-        <v>10000</v>
+      <c r="E2" s="31">
+        <v>9177.19</v>
+      </c>
+      <c r="F2" s="31">
+        <v>9177.19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2212,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2223,58 +2200,57 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="28">
@@ -2302,8 +2278,9 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2313,8 +2290,10 @@
       <c r="C3" s="28">
         <v>42013</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="28">
+        <v>42013</v>
+      </c>
+      <c r="E3" s="34"/>
       <c r="F3" s="12">
         <v>822.81</v>
       </c>
@@ -2334,23 +2313,24 @@
         <v>845.89</v>
       </c>
       <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12"/>
+        <v>822.81</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
       <c r="O3" s="12">
         <v>0</v>
       </c>
       <c r="P3" s="12">
         <v>23.08</v>
       </c>
-      <c r="Q3" s="12">
-        <v>822.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2383,21 +2363,22 @@
       <c r="L4" s="12">
         <v>0</v>
       </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
       <c r="O4" s="12">
         <v>0</v>
       </c>
       <c r="P4" s="12">
         <v>0</v>
       </c>
-      <c r="Q4" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2430,21 +2411,22 @@
       <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
       <c r="O5" s="12">
         <v>0</v>
       </c>
       <c r="P5" s="12">
         <v>0</v>
       </c>
-      <c r="Q5" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2477,21 +2459,22 @@
       <c r="L6" s="12">
         <v>0</v>
       </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
       <c r="O6" s="12">
         <v>0</v>
       </c>
       <c r="P6" s="12">
         <v>0</v>
       </c>
-      <c r="Q6" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2524,21 +2507,22 @@
       <c r="L7" s="12">
         <v>0</v>
       </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
       <c r="O7" s="12">
         <v>0</v>
       </c>
       <c r="P7" s="12">
         <v>0</v>
       </c>
-      <c r="Q7" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2571,21 +2555,22 @@
       <c r="L8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
       <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2618,21 +2603,22 @@
       <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
       <c r="O9" s="12">
         <v>0</v>
       </c>
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2665,21 +2651,22 @@
       <c r="L10" s="12">
         <v>0</v>
       </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
       <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10" s="12">
         <v>0</v>
       </c>
-      <c r="Q10" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2712,21 +2699,22 @@
       <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
       <c r="O11" s="12">
         <v>0</v>
       </c>
       <c r="P11" s="12">
         <v>0</v>
       </c>
-      <c r="Q11" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2759,21 +2747,22 @@
       <c r="L12" s="12">
         <v>0</v>
       </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
       <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>
       </c>
-      <c r="Q12" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2806,21 +2795,22 @@
       <c r="L13" s="12">
         <v>0</v>
       </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
       <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13" s="12">
         <v>0</v>
       </c>
-      <c r="Q13" s="12">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2853,17 +2843,18 @@
       <c r="L14" s="12">
         <v>0</v>
       </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
       <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
         <v>0</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12">
         <v>845.85</v>
       </c>
     </row>
